--- a/Code/Results/Cases/Case_1_140/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_140/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.46658341106984</v>
+        <v>16.52184105490078</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.018540402983332</v>
+        <v>7.877306581233581</v>
       </c>
       <c r="E2">
-        <v>48.22012032222479</v>
+        <v>25.59877912509573</v>
       </c>
       <c r="F2">
-        <v>65.57676056855175</v>
+        <v>45.47921598967443</v>
       </c>
       <c r="G2">
-        <v>1.910477804967616</v>
+        <v>3.645392153895943</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>14.75114257268923</v>
+        <v>25.93575466912673</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>14.47456546244312</v>
+        <v>12.28798852929961</v>
       </c>
       <c r="M2">
-        <v>17.10830894202517</v>
+        <v>17.1390882066967</v>
       </c>
       <c r="N2">
-        <v>12.08472252575948</v>
+        <v>19.04854897325594</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.11545994942957</v>
+        <v>16.24611252694594</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.301335820609244</v>
+        <v>7.786876854999162</v>
       </c>
       <c r="E3">
-        <v>44.42239531271301</v>
+        <v>24.0031485881934</v>
       </c>
       <c r="F3">
-        <v>60.25506619186778</v>
+        <v>44.24575825043235</v>
       </c>
       <c r="G3">
-        <v>1.940657448920658</v>
+        <v>3.653731593812685</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>15.19117068006237</v>
+        <v>26.10612614482224</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>13.34019163722455</v>
+        <v>12.11960071415472</v>
       </c>
       <c r="M3">
-        <v>15.82261253860146</v>
+        <v>16.99272164858797</v>
       </c>
       <c r="N3">
-        <v>12.43468888191616</v>
+        <v>19.12881201816397</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.31838398851119</v>
+        <v>16.07848944164112</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.918425482546229</v>
+        <v>7.73451838414412</v>
       </c>
       <c r="E4">
-        <v>42.04781657321205</v>
+        <v>22.96773923048344</v>
       </c>
       <c r="F4">
-        <v>56.95958378237864</v>
+        <v>43.49324691037108</v>
       </c>
       <c r="G4">
-        <v>1.95887894716052</v>
+        <v>3.659092497241657</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>15.47985427710337</v>
+        <v>26.21667587669087</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.62413188929347</v>
+        <v>12.01893127232456</v>
       </c>
       <c r="M4">
-        <v>15.00601621757679</v>
+        <v>16.9065511017785</v>
       </c>
       <c r="N4">
-        <v>12.64699464544493</v>
+        <v>19.18020693071199</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.00687390459869</v>
+        <v>16.01068919797066</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.763974087838729</v>
+        <v>7.713993559057991</v>
       </c>
       <c r="E5">
-        <v>41.0662311677493</v>
+        <v>22.53182580684014</v>
       </c>
       <c r="F5">
-        <v>55.60575247510482</v>
+        <v>43.18830315651833</v>
       </c>
       <c r="G5">
-        <v>1.966266184313454</v>
+        <v>3.661337985014467</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>15.60166380500348</v>
+        <v>26.26321730582593</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.32668940089495</v>
+        <v>11.97863527749824</v>
       </c>
       <c r="M5">
-        <v>14.6657453853241</v>
+        <v>16.87239474255985</v>
       </c>
       <c r="N5">
-        <v>12.73321386721739</v>
+        <v>19.20168549587521</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.95480390043793</v>
+        <v>15.99946418861927</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.738412565647318</v>
+        <v>7.71063486237626</v>
       </c>
       <c r="E6">
-        <v>40.9023194035486</v>
+        <v>22.45859979035257</v>
       </c>
       <c r="F6">
-        <v>55.3801999809646</v>
+        <v>43.13778548085344</v>
       </c>
       <c r="G6">
-        <v>1.967491515723206</v>
+        <v>3.661714535314801</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>15.62213001729533</v>
+        <v>26.27103549353134</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.2769401173976</v>
+        <v>11.97198933777373</v>
       </c>
       <c r="M6">
-        <v>14.60877366017012</v>
+        <v>16.86678181812932</v>
       </c>
       <c r="N6">
-        <v>12.74752139852755</v>
+        <v>19.20528438947793</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.31420587753378</v>
+        <v>16.07757289506423</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.916336582037927</v>
+        <v>7.734238273754002</v>
       </c>
       <c r="E7">
-        <v>42.03463861793757</v>
+        <v>22.96191688729791</v>
       </c>
       <c r="F7">
-        <v>56.94137394332077</v>
+        <v>43.48912674330745</v>
       </c>
       <c r="G7">
-        <v>1.958978682727745</v>
+        <v>3.659122533645292</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>15.48148071822391</v>
+        <v>26.21729751450737</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.6201441712176</v>
+        <v>12.01838482431503</v>
       </c>
       <c r="M7">
-        <v>15.00145836121204</v>
+        <v>16.90608653833797</v>
       </c>
       <c r="N7">
-        <v>12.64815822260941</v>
+        <v>19.18049442861843</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.00727507982387</v>
+        <v>16.42647388089823</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>8.751179761841513</v>
+        <v>7.84547941573805</v>
       </c>
       <c r="E8">
-        <v>46.91737260133205</v>
+        <v>25.06017358445896</v>
       </c>
       <c r="F8">
-        <v>63.74491629426947</v>
+        <v>45.05320838257759</v>
       </c>
       <c r="G8">
-        <v>1.920974752044064</v>
+        <v>3.648217936430425</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>14.89869075704676</v>
+        <v>25.99326421499789</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>14.08699972121486</v>
+        <v>12.22939004874122</v>
       </c>
       <c r="M8">
-        <v>16.67018951465795</v>
+        <v>17.08787100649804</v>
       </c>
       <c r="N8">
-        <v>12.20616297367903</v>
+        <v>19.07578714319735</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.22396150497265</v>
+        <v>17.12018753189969</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>10.71012867915561</v>
+        <v>8.087951527670935</v>
       </c>
       <c r="E9">
-        <v>56.35399513027937</v>
+        <v>28.7327542504498</v>
       </c>
       <c r="F9">
-        <v>77.12520028923305</v>
+        <v>48.13783410247628</v>
       </c>
       <c r="G9">
-        <v>1.841517005482603</v>
+        <v>3.62872300301114</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>13.93333050156602</v>
+        <v>25.60118835886752</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>16.85325781105665</v>
+        <v>12.66279461513936</v>
       </c>
       <c r="M9">
-        <v>19.76807458381159</v>
+        <v>17.47236101918654</v>
       </c>
       <c r="N9">
-        <v>11.29718510121086</v>
+        <v>18.88706749896543</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.50973238403167</v>
+        <v>17.63068892543015</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>12.25638093755845</v>
+        <v>8.279743900927208</v>
       </c>
       <c r="E10">
-        <v>63.65021401146082</v>
+        <v>31.16220475206405</v>
       </c>
       <c r="F10">
-        <v>87.5772814450284</v>
+        <v>50.38832148434742</v>
       </c>
       <c r="G10">
-        <v>1.774647070076418</v>
+        <v>3.615524868415223</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>13.39733657823068</v>
+        <v>25.3421053732493</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>18.9160410429895</v>
+        <v>12.99048701702924</v>
       </c>
       <c r="M10">
-        <v>22.02673035626071</v>
+        <v>17.77003133685057</v>
       </c>
       <c r="N10">
-        <v>10.55596927887451</v>
+        <v>18.75832179302512</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.56116354682698</v>
+        <v>17.86209472344641</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>13.02790063910405</v>
+        <v>8.369677581826339</v>
       </c>
       <c r="E11">
-        <v>67.24974551695618</v>
+        <v>32.20943051758615</v>
       </c>
       <c r="F11">
-        <v>92.73958532233125</v>
+        <v>51.40364449528278</v>
       </c>
       <c r="G11">
-        <v>1.739931942102418</v>
+        <v>3.609759066165345</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>13.21718437897688</v>
+        <v>25.23057633466069</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>19.90400584323953</v>
+        <v>13.14099865863129</v>
       </c>
       <c r="M11">
-        <v>23.08944589445548</v>
+        <v>17.90832128551209</v>
       </c>
       <c r="N11">
-        <v>10.18181715044947</v>
+        <v>18.70185519763612</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.96577916581122</v>
+        <v>17.94952272247748</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>13.33760596674427</v>
+        <v>8.404094384505644</v>
       </c>
       <c r="E12">
-        <v>68.68787141582419</v>
+        <v>32.59769339871195</v>
       </c>
       <c r="F12">
-        <v>94.79995084735158</v>
+        <v>51.78652823368607</v>
       </c>
       <c r="G12">
-        <v>1.725748183076131</v>
+        <v>3.607609471538992</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>13.16203764401508</v>
+        <v>25.18925768576582</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>20.29255898265588</v>
+        <v>13.1981531502609</v>
       </c>
       <c r="M12">
-        <v>23.50354366913956</v>
+        <v>17.96106507487339</v>
       </c>
       <c r="N12">
-        <v>10.03124421537911</v>
+        <v>18.68077100878137</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.87822992506411</v>
+        <v>17.93070371583143</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>13.26992743638846</v>
+        <v>8.396666470866711</v>
       </c>
       <c r="E13">
-        <v>68.37392285437713</v>
+        <v>32.51444253427238</v>
       </c>
       <c r="F13">
-        <v>94.35033084419752</v>
+        <v>51.70414416816115</v>
       </c>
       <c r="G13">
-        <v>1.728859732945345</v>
+        <v>3.608070929620744</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>13.17324201699069</v>
+        <v>25.19811562058655</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>20.2080505691272</v>
+        <v>13.18583759766993</v>
       </c>
       <c r="M13">
-        <v>23.4136744407445</v>
+        <v>17.94968961710582</v>
       </c>
       <c r="N13">
-        <v>10.06415849202394</v>
+        <v>18.6852986480308</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.59428046424521</v>
+        <v>17.86929194955412</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>13.05296064836272</v>
+        <v>8.372501988034516</v>
       </c>
       <c r="E14">
-        <v>67.36625246520983</v>
+        <v>32.24153924518018</v>
       </c>
       <c r="F14">
-        <v>92.90656836418785</v>
+        <v>51.43517866237396</v>
       </c>
       <c r="G14">
-        <v>1.738789506739998</v>
+        <v>3.609581543125969</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>13.21235380581158</v>
+        <v>25.22715865784229</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>19.9356195222909</v>
+        <v>13.14569788069313</v>
       </c>
       <c r="M14">
-        <v>23.12322263597921</v>
+        <v>17.91265322158731</v>
       </c>
       <c r="N14">
-        <v>10.16963868864406</v>
+        <v>18.70011462720629</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.42140132791171</v>
+        <v>17.83164700665748</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>12.9226849856264</v>
+        <v>8.35774677654353</v>
       </c>
       <c r="E15">
-        <v>66.7603116344235</v>
+        <v>32.07329845063423</v>
       </c>
       <c r="F15">
-        <v>92.03799959539862</v>
+        <v>51.27021069707469</v>
       </c>
       <c r="G15">
-        <v>1.744718378260073</v>
+        <v>3.610511224479227</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>13.23817185112072</v>
+        <v>25.24506766479066</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>19.77094316083086</v>
+        <v>13.12113042915404</v>
       </c>
       <c r="M15">
-        <v>22.94711788184795</v>
+        <v>17.89001525718927</v>
       </c>
       <c r="N15">
-        <v>10.2329360537305</v>
+        <v>18.70922860744127</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.44158657672004</v>
+        <v>17.61554235608087</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>12.20786778738181</v>
+        <v>8.273918419843888</v>
       </c>
       <c r="E16">
-        <v>63.42302565441219</v>
+        <v>31.09260282692163</v>
       </c>
       <c r="F16">
-        <v>87.25136788696524</v>
+        <v>50.3217644279095</v>
       </c>
       <c r="G16">
-        <v>1.776800188864021</v>
+        <v>3.615906430084027</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>13.41067565005638</v>
+        <v>25.34952182242791</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>18.85298077574068</v>
+        <v>12.98067559557542</v>
       </c>
       <c r="M16">
-        <v>21.95844792752453</v>
+        <v>17.76104848482242</v>
       </c>
       <c r="N16">
-        <v>10.57942856225163</v>
+        <v>18.7620539813339</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.84593894952762</v>
+        <v>17.48269880732849</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>11.79073738838063</v>
+        <v>8.223162588847172</v>
       </c>
       <c r="E17">
-        <v>61.46520476531677</v>
+        <v>30.47615884908106</v>
       </c>
       <c r="F17">
-        <v>84.44322152529647</v>
+        <v>49.73747938576305</v>
       </c>
       <c r="G17">
-        <v>1.795166820258185</v>
+        <v>3.619276879207482</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>13.53495608650025</v>
+        <v>25.41522543438906</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>18.30627847253588</v>
+        <v>12.89484587119296</v>
       </c>
       <c r="M17">
-        <v>21.36433948145674</v>
+        <v>17.68264219238977</v>
       </c>
       <c r="N17">
-        <v>10.78069257517995</v>
+        <v>18.79499609851954</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.50403413428098</v>
+        <v>17.40621786196076</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>11.55657940328591</v>
+        <v>8.194223601949975</v>
       </c>
       <c r="E18">
-        <v>60.36261442932681</v>
+        <v>30.11614022147575</v>
       </c>
       <c r="F18">
-        <v>82.86249936762349</v>
+        <v>49.40064108351774</v>
       </c>
       <c r="G18">
-        <v>1.805361534518764</v>
+        <v>3.621237910298508</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>13.61211582908909</v>
+        <v>25.45361182557333</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>17.99589019797941</v>
+        <v>12.84561753656557</v>
       </c>
       <c r="M18">
-        <v>21.02539198614322</v>
+        <v>17.63781815900192</v>
       </c>
       <c r="N18">
-        <v>10.89327202228396</v>
+        <v>18.81414145475249</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.38829378443165</v>
+        <v>17.38031276695196</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>11.47813311746034</v>
+        <v>8.184469820677213</v>
       </c>
       <c r="E19">
-        <v>59.99263890294257</v>
+        <v>29.99330605227731</v>
       </c>
       <c r="F19">
-        <v>82.33227274960713</v>
+        <v>49.28647289390551</v>
       </c>
       <c r="G19">
-        <v>1.808758276287477</v>
+        <v>3.621905749002637</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>13.63912972704962</v>
+        <v>25.4667109189071</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>17.89134865895214</v>
+        <v>12.82897497288759</v>
       </c>
       <c r="M19">
-        <v>20.91097263795107</v>
+        <v>17.62268956796439</v>
       </c>
       <c r="N19">
-        <v>10.93091481104445</v>
+        <v>18.820657844437</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.90925026442888</v>
+        <v>17.49684837369021</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>11.83450608188976</v>
+        <v>8.228539484088845</v>
       </c>
       <c r="E20">
-        <v>61.67101160299532</v>
+        <v>30.5423448526496</v>
       </c>
       <c r="F20">
-        <v>84.73835163080822</v>
+        <v>49.79976041428609</v>
       </c>
       <c r="G20">
-        <v>1.79325200107225</v>
+        <v>3.618915770132415</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>13.52111723294142</v>
+        <v>25.40816951599584</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>18.36401865185396</v>
+        <v>12.90396859578146</v>
       </c>
       <c r="M20">
-        <v>21.42726338278469</v>
+        <v>17.69096067205813</v>
       </c>
       <c r="N20">
-        <v>10.75961513923513</v>
+        <v>18.79146889542253</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.67745010046016</v>
+        <v>17.88733614670066</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>13.11611823120371</v>
+        <v>8.379590093792434</v>
       </c>
       <c r="E21">
-        <v>67.65976913562254</v>
+        <v>32.32192248672174</v>
       </c>
       <c r="F21">
-        <v>93.32720236494212</v>
+        <v>51.5142265941935</v>
       </c>
       <c r="G21">
-        <v>1.735906167998204</v>
+        <v>3.609136925889377</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>13.20046692179074</v>
+        <v>25.2186031408027</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>20.0151589439414</v>
+        <v>13.15748395483275</v>
       </c>
       <c r="M21">
-        <v>23.20813869086403</v>
+        <v>17.92352179432882</v>
       </c>
       <c r="N21">
-        <v>10.1389411517878</v>
+        <v>18.69575474273804</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.8769087955802</v>
+        <v>18.14133922581663</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>14.06622404923665</v>
+        <v>8.480401721610866</v>
       </c>
       <c r="E22">
-        <v>72.05696179113826</v>
+        <v>33.43662727072916</v>
       </c>
       <c r="F22">
-        <v>99.6168721465701</v>
+        <v>52.62526546674881</v>
       </c>
       <c r="G22">
-        <v>1.691828278064826</v>
+        <v>3.602942623923563</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>13.07138429205282</v>
+        <v>25.10004628916175</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>21.18788648720415</v>
+        <v>13.32407593715661</v>
       </c>
       <c r="M22">
-        <v>24.44863233632794</v>
+        <v>18.0776902052004</v>
       </c>
       <c r="N22">
-        <v>9.676840962023929</v>
+        <v>18.63493812870703</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.22981486057416</v>
+        <v>18.00590923013638</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>13.54405976550023</v>
+        <v>8.426413824809266</v>
       </c>
       <c r="E23">
-        <v>69.64449523773203</v>
+        <v>32.84609999044403</v>
       </c>
       <c r="F23">
-        <v>96.16929389642156</v>
+        <v>52.03326750665125</v>
       </c>
       <c r="G23">
-        <v>1.716215019623095</v>
+        <v>3.606230787943833</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>13.1307867417341</v>
+        <v>25.1628323817227</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>20.5489551829835</v>
+        <v>13.2350955967928</v>
       </c>
       <c r="M23">
-        <v>23.77552284568543</v>
+        <v>17.99522096471986</v>
       </c>
       <c r="N23">
-        <v>9.930818545077463</v>
+        <v>18.66723924974468</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.88062583100518</v>
+        <v>17.49045168307533</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>11.81470111598153</v>
+        <v>8.226107836491414</v>
       </c>
       <c r="E24">
-        <v>61.57789687157131</v>
+        <v>30.51243965789511</v>
       </c>
       <c r="F24">
-        <v>84.60482117760334</v>
+        <v>49.77160601310047</v>
       </c>
       <c r="G24">
-        <v>1.794118800257218</v>
+        <v>3.619078954890327</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>13.52735625017459</v>
+        <v>25.41135758923395</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>18.33790256396441</v>
+        <v>12.8998438460058</v>
       </c>
       <c r="M24">
-        <v>21.39880775546543</v>
+        <v>17.68719909718071</v>
       </c>
       <c r="N24">
-        <v>10.76915377598524</v>
+        <v>18.79306290049027</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.3736681732204</v>
+        <v>16.93202066270345</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>10.17112877635866</v>
+        <v>8.019867788802156</v>
       </c>
       <c r="E25">
-        <v>53.78122048829763</v>
+        <v>27.78652283400253</v>
       </c>
       <c r="F25">
-        <v>73.45548305624072</v>
+        <v>47.30431883265932</v>
       </c>
       <c r="G25">
-        <v>1.863967987032314</v>
+        <v>3.633797419199541</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>14.17024045245754</v>
+        <v>25.70218035090023</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>16.1090376047191</v>
+        <v>12.54372259737793</v>
       </c>
       <c r="M25">
-        <v>18.94167585026036</v>
+        <v>17.36553778724245</v>
       </c>
       <c r="N25">
-        <v>11.55134687950326</v>
+        <v>18.93636545723941</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_140/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_140/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.52184105490078</v>
+        <v>18.46658341106982</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.877306581233581</v>
+        <v>9.018540402983255</v>
       </c>
       <c r="E2">
-        <v>25.59877912509573</v>
+        <v>48.22012032222479</v>
       </c>
       <c r="F2">
-        <v>45.47921598967443</v>
+        <v>65.57676056855176</v>
       </c>
       <c r="G2">
-        <v>3.645392153895943</v>
+        <v>1.910477804967729</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>25.93575466912673</v>
+        <v>14.75114257268929</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.28798852929961</v>
+        <v>14.47456546244313</v>
       </c>
       <c r="M2">
-        <v>17.1390882066967</v>
+        <v>17.10830894202516</v>
       </c>
       <c r="N2">
-        <v>19.04854897325594</v>
+        <v>12.08472252575948</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.24611252694594</v>
+        <v>17.11545994942963</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.786876854999162</v>
+        <v>8.301335820609227</v>
       </c>
       <c r="E3">
-        <v>24.0031485881934</v>
+        <v>44.4223953127133</v>
       </c>
       <c r="F3">
-        <v>44.24575825043235</v>
+        <v>60.2550661918681</v>
       </c>
       <c r="G3">
-        <v>3.653731593812685</v>
+        <v>1.940657448920917</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>26.10612614482224</v>
+        <v>15.19117068006231</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.11960071415472</v>
+        <v>13.3401916372246</v>
       </c>
       <c r="M3">
-        <v>16.99272164858797</v>
+        <v>15.82261253860151</v>
       </c>
       <c r="N3">
-        <v>19.12881201816397</v>
+        <v>12.43468888191613</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.07848944164112</v>
+        <v>16.31838398851123</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.73451838414412</v>
+        <v>7.918425482546223</v>
       </c>
       <c r="E4">
-        <v>22.96773923048344</v>
+        <v>42.04781657321202</v>
       </c>
       <c r="F4">
-        <v>43.49324691037108</v>
+        <v>56.95958378237867</v>
       </c>
       <c r="G4">
-        <v>3.659092497241657</v>
+        <v>1.958878947160523</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>26.21667587669087</v>
+        <v>15.47985427710339</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.01893127232456</v>
+        <v>12.62413188929342</v>
       </c>
       <c r="M4">
-        <v>16.9065511017785</v>
+        <v>15.00601621757677</v>
       </c>
       <c r="N4">
-        <v>19.18020693071199</v>
+        <v>12.64699464544493</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.01068919797066</v>
+        <v>16.00687390459866</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.713993559057991</v>
+        <v>7.76397408783876</v>
       </c>
       <c r="E5">
-        <v>22.53182580684014</v>
+        <v>41.06623116774954</v>
       </c>
       <c r="F5">
-        <v>43.18830315651833</v>
+        <v>55.60575247510501</v>
       </c>
       <c r="G5">
-        <v>3.661337985014467</v>
+        <v>1.966266184313322</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>26.26321730582593</v>
+        <v>15.60166380500349</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.97863527749824</v>
+        <v>12.32668940089506</v>
       </c>
       <c r="M5">
-        <v>16.87239474255985</v>
+        <v>14.66574538532417</v>
       </c>
       <c r="N5">
-        <v>19.20168549587521</v>
+        <v>12.73321386721739</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.99946418861927</v>
+        <v>15.95480390043795</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.71063486237626</v>
+        <v>7.738412565647311</v>
       </c>
       <c r="E6">
-        <v>22.45859979035257</v>
+        <v>40.90231940354871</v>
       </c>
       <c r="F6">
-        <v>43.13778548085344</v>
+        <v>55.38019998096474</v>
       </c>
       <c r="G6">
-        <v>3.661714535314801</v>
+        <v>1.967491515723337</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>26.27103549353134</v>
+        <v>15.62213001729533</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.97198933777373</v>
+        <v>12.27694011739759</v>
       </c>
       <c r="M6">
-        <v>16.86678181812932</v>
+        <v>14.6087736601701</v>
       </c>
       <c r="N6">
-        <v>19.20528438947793</v>
+        <v>12.74752139852752</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.07757289506423</v>
+        <v>16.31420587753378</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.734238273754002</v>
+        <v>7.916336582037944</v>
       </c>
       <c r="E7">
-        <v>22.96191688729791</v>
+        <v>42.03463861793774</v>
       </c>
       <c r="F7">
-        <v>43.48912674330745</v>
+        <v>56.94137394332086</v>
       </c>
       <c r="G7">
-        <v>3.659122533645292</v>
+        <v>1.958978682727488</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>26.21729751450737</v>
+        <v>15.48148071822387</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.01838482431503</v>
+        <v>12.62014417121765</v>
       </c>
       <c r="M7">
-        <v>16.90608653833797</v>
+        <v>15.00145836121209</v>
       </c>
       <c r="N7">
-        <v>19.18049442861843</v>
+        <v>12.64815822260942</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.42647388089823</v>
+        <v>18.00727507982385</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.84547941573805</v>
+        <v>8.75117976184152</v>
       </c>
       <c r="E8">
-        <v>25.06017358445896</v>
+        <v>46.91737260133213</v>
       </c>
       <c r="F8">
-        <v>45.05320838257759</v>
+        <v>63.74491629426953</v>
       </c>
       <c r="G8">
-        <v>3.648217936430425</v>
+        <v>1.920974752043929</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>25.99326421499789</v>
+        <v>14.89869075704677</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>12.22939004874122</v>
+        <v>14.08699972121485</v>
       </c>
       <c r="M8">
-        <v>17.08787100649804</v>
+        <v>16.67018951465792</v>
       </c>
       <c r="N8">
-        <v>19.07578714319735</v>
+        <v>12.206162973679</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.12018753189969</v>
+        <v>21.2239615049726</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.087951527670935</v>
+        <v>10.71012867915554</v>
       </c>
       <c r="E9">
-        <v>28.7327542504498</v>
+        <v>56.35399513027928</v>
       </c>
       <c r="F9">
-        <v>48.13783410247628</v>
+        <v>77.12520028923274</v>
       </c>
       <c r="G9">
-        <v>3.62872300301114</v>
+        <v>1.841517005482604</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>25.60118835886752</v>
+        <v>13.93333050156615</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>12.66279461513936</v>
+        <v>16.85325781105655</v>
       </c>
       <c r="M9">
-        <v>17.47236101918654</v>
+        <v>19.7680745838115</v>
       </c>
       <c r="N9">
-        <v>18.88706749896543</v>
+        <v>11.29718510121092</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.63068892543015</v>
+        <v>23.50973238403164</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>8.279743900927208</v>
+        <v>12.25638093755833</v>
       </c>
       <c r="E10">
-        <v>31.16220475206405</v>
+        <v>63.65021401146061</v>
       </c>
       <c r="F10">
-        <v>50.38832148434742</v>
+        <v>87.57728144502821</v>
       </c>
       <c r="G10">
-        <v>3.615524868415223</v>
+        <v>1.774647070076447</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>25.3421053732493</v>
+        <v>13.39733657823071</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>12.99048701702924</v>
+        <v>18.91604104298944</v>
       </c>
       <c r="M10">
-        <v>17.77003133685057</v>
+        <v>22.02673035626066</v>
       </c>
       <c r="N10">
-        <v>18.75832179302512</v>
+        <v>10.55596927887451</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.86209472344641</v>
+        <v>24.56116354682694</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>8.369677581826339</v>
+        <v>13.02790063910401</v>
       </c>
       <c r="E11">
-        <v>32.20943051758615</v>
+        <v>67.24974551695611</v>
       </c>
       <c r="F11">
-        <v>51.40364449528278</v>
+        <v>92.73958532233115</v>
       </c>
       <c r="G11">
-        <v>3.609759066165345</v>
+        <v>1.739931942102541</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>25.23057633466069</v>
+        <v>13.21718437897695</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>13.14099865863129</v>
+        <v>19.90400584323953</v>
       </c>
       <c r="M11">
-        <v>17.90832128551209</v>
+        <v>23.08944589445545</v>
       </c>
       <c r="N11">
-        <v>18.70185519763612</v>
+        <v>10.18181715044947</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.94952272247748</v>
+        <v>24.96577916581113</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>8.404094384505644</v>
+        <v>13.33760596674425</v>
       </c>
       <c r="E12">
-        <v>32.59769339871195</v>
+        <v>68.68787141582359</v>
       </c>
       <c r="F12">
-        <v>51.78652823368607</v>
+        <v>94.79995084735093</v>
       </c>
       <c r="G12">
-        <v>3.607609471538992</v>
+        <v>1.725748183075998</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>25.18925768576582</v>
+        <v>13.16203764401518</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>13.1981531502609</v>
+        <v>20.2925589826558</v>
       </c>
       <c r="M12">
-        <v>17.96106507487339</v>
+        <v>23.50354366913947</v>
       </c>
       <c r="N12">
-        <v>18.68077100878137</v>
+        <v>10.0312442153792</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.93070371583143</v>
+        <v>24.87822992506415</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>8.396666470866711</v>
+        <v>13.26992743638847</v>
       </c>
       <c r="E13">
-        <v>32.51444253427238</v>
+        <v>68.3739228543773</v>
       </c>
       <c r="F13">
-        <v>51.70414416816115</v>
+        <v>94.35033084419781</v>
       </c>
       <c r="G13">
-        <v>3.608070929620744</v>
+        <v>1.728859732945507</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>25.19811562058655</v>
+        <v>13.17324201699062</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>13.18583759766993</v>
+        <v>20.20805056912728</v>
       </c>
       <c r="M13">
-        <v>17.94968961710582</v>
+        <v>23.41367444074454</v>
       </c>
       <c r="N13">
-        <v>18.6852986480308</v>
+        <v>10.06415849202381</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.86929194955412</v>
+        <v>24.59428046424522</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>8.372501988034516</v>
+        <v>13.05296064836262</v>
       </c>
       <c r="E14">
-        <v>32.24153924518018</v>
+        <v>67.36625246520971</v>
       </c>
       <c r="F14">
-        <v>51.43517866237396</v>
+        <v>92.90656836418766</v>
       </c>
       <c r="G14">
-        <v>3.609581543125969</v>
+        <v>1.738789506740077</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>25.22715865784229</v>
+        <v>13.21235380581167</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>13.14569788069313</v>
+        <v>19.93561952229086</v>
       </c>
       <c r="M14">
-        <v>17.91265322158731</v>
+        <v>23.12322263597918</v>
       </c>
       <c r="N14">
-        <v>18.70011462720629</v>
+        <v>10.16963868864412</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.83164700665748</v>
+        <v>24.42140132791171</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>8.35774677654353</v>
+        <v>12.92268498562641</v>
       </c>
       <c r="E15">
-        <v>32.07329845063423</v>
+        <v>66.76031163442349</v>
       </c>
       <c r="F15">
-        <v>51.27021069707469</v>
+        <v>92.03799959539853</v>
       </c>
       <c r="G15">
-        <v>3.610511224479227</v>
+        <v>1.744718378259875</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>25.24506766479066</v>
+        <v>13.23817185112072</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>13.12113042915404</v>
+        <v>19.77094316083084</v>
       </c>
       <c r="M15">
-        <v>17.89001525718927</v>
+        <v>22.94711788184792</v>
       </c>
       <c r="N15">
-        <v>18.70922860744127</v>
+        <v>10.2329360537305</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.61554235608087</v>
+        <v>23.44158657672002</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>8.273918419843888</v>
+        <v>12.20786778738182</v>
       </c>
       <c r="E16">
-        <v>31.09260282692163</v>
+        <v>63.42302565441194</v>
       </c>
       <c r="F16">
-        <v>50.3217644279095</v>
+        <v>87.25136788696489</v>
       </c>
       <c r="G16">
-        <v>3.615906430084027</v>
+        <v>1.776800188864025</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>25.34952182242791</v>
+        <v>13.41067565005642</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>12.98067559557542</v>
+        <v>18.85298077574062</v>
       </c>
       <c r="M16">
-        <v>17.76104848482242</v>
+        <v>21.95844792752449</v>
       </c>
       <c r="N16">
-        <v>18.7620539813339</v>
+        <v>10.57942856225167</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.48269880732849</v>
+        <v>22.8459389495277</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>8.223162588847172</v>
+        <v>11.79073738838068</v>
       </c>
       <c r="E17">
-        <v>30.47615884908106</v>
+        <v>61.46520476531684</v>
       </c>
       <c r="F17">
-        <v>49.73747938576305</v>
+        <v>84.44322152529654</v>
       </c>
       <c r="G17">
-        <v>3.619276879207482</v>
+        <v>1.795166820258195</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>25.41522543438906</v>
+        <v>13.53495608650027</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>12.89484587119296</v>
+        <v>18.30627847253585</v>
       </c>
       <c r="M17">
-        <v>17.68264219238977</v>
+        <v>21.36433948145674</v>
       </c>
       <c r="N17">
-        <v>18.79499609851954</v>
+        <v>10.78069257517995</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.40621786196076</v>
+        <v>22.50403413428096</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>8.194223601949975</v>
+        <v>11.55657940328577</v>
       </c>
       <c r="E18">
-        <v>30.11614022147575</v>
+        <v>60.36261442932664</v>
       </c>
       <c r="F18">
-        <v>49.40064108351774</v>
+        <v>82.8624993676233</v>
       </c>
       <c r="G18">
-        <v>3.621237910298508</v>
+        <v>1.805361534519023</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>25.45361182557333</v>
+        <v>13.61211582908924</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>12.84561753656557</v>
+        <v>17.99589019797937</v>
       </c>
       <c r="M18">
-        <v>17.63781815900192</v>
+        <v>21.02539198614318</v>
       </c>
       <c r="N18">
-        <v>18.81414145475249</v>
+        <v>10.89327202228402</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.38031276695196</v>
+        <v>22.38829378443168</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>8.184469820677213</v>
+        <v>11.47813311746034</v>
       </c>
       <c r="E19">
-        <v>29.99330605227731</v>
+        <v>59.99263890294244</v>
       </c>
       <c r="F19">
-        <v>49.28647289390551</v>
+        <v>82.33227274960704</v>
       </c>
       <c r="G19">
-        <v>3.621905749002637</v>
+        <v>1.808758276287597</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>25.4667109189071</v>
+        <v>13.63912972704958</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>12.82897497288759</v>
+        <v>17.89134865895212</v>
       </c>
       <c r="M19">
-        <v>17.62268956796439</v>
+        <v>20.91097263795107</v>
       </c>
       <c r="N19">
-        <v>18.820657844437</v>
+        <v>10.93091481104445</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.49684837369021</v>
+        <v>22.90925026442887</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>8.228539484088845</v>
+        <v>11.83450608188983</v>
       </c>
       <c r="E20">
-        <v>30.5423448526496</v>
+        <v>61.67101160299541</v>
       </c>
       <c r="F20">
-        <v>49.79976041428609</v>
+        <v>84.73835163080832</v>
       </c>
       <c r="G20">
-        <v>3.618915770132415</v>
+        <v>1.793252001072006</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>25.40816951599584</v>
+        <v>13.52111723294143</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>12.90396859578146</v>
+        <v>18.36401865185398</v>
       </c>
       <c r="M20">
-        <v>17.69096067205813</v>
+        <v>21.42726338278469</v>
       </c>
       <c r="N20">
-        <v>18.79146889542253</v>
+        <v>10.75961513923512</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.88733614670066</v>
+        <v>24.67745010046021</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>8.379590093792434</v>
+        <v>13.11611823120376</v>
       </c>
       <c r="E21">
-        <v>32.32192248672174</v>
+        <v>67.65976913562294</v>
       </c>
       <c r="F21">
-        <v>51.5142265941935</v>
+        <v>93.32720236494256</v>
       </c>
       <c r="G21">
-        <v>3.609136925889377</v>
+        <v>1.735906167997953</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>25.2186031408027</v>
+        <v>13.20046692179074</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>13.15748395483275</v>
+        <v>20.01515894394148</v>
       </c>
       <c r="M21">
-        <v>17.92352179432882</v>
+        <v>23.20813869086408</v>
       </c>
       <c r="N21">
-        <v>18.69575474273804</v>
+        <v>10.13894115178776</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.14133922581663</v>
+        <v>25.87690879558023</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>8.480401721610866</v>
+        <v>14.06622404923664</v>
       </c>
       <c r="E22">
-        <v>33.43662727072916</v>
+        <v>72.05696179113846</v>
       </c>
       <c r="F22">
-        <v>52.62526546674881</v>
+        <v>99.61687214657039</v>
       </c>
       <c r="G22">
-        <v>3.602942623923563</v>
+        <v>1.691828278064736</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>25.10004628916175</v>
+        <v>13.07138429205286</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>13.32407593715661</v>
+        <v>21.18788648720414</v>
       </c>
       <c r="M22">
-        <v>18.0776902052004</v>
+        <v>24.44863233632796</v>
       </c>
       <c r="N22">
-        <v>18.63493812870703</v>
+        <v>9.676840962023926</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.00590923013638</v>
+        <v>25.22981486057424</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>8.426413824809266</v>
+        <v>13.54405976550019</v>
       </c>
       <c r="E23">
-        <v>32.84609999044403</v>
+        <v>69.644495237732</v>
       </c>
       <c r="F23">
-        <v>52.03326750665125</v>
+        <v>96.16929389642158</v>
       </c>
       <c r="G23">
-        <v>3.606230787943833</v>
+        <v>1.716215019623106</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>25.1628323817227</v>
+        <v>13.13078674173406</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>13.2350955967928</v>
+        <v>20.54895518298348</v>
       </c>
       <c r="M23">
-        <v>17.99522096471986</v>
+        <v>23.77552284568546</v>
       </c>
       <c r="N23">
-        <v>18.66723924974468</v>
+        <v>9.930818545077464</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.49045168307533</v>
+        <v>22.88062583100515</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>8.226107836491414</v>
+        <v>11.81470111598147</v>
       </c>
       <c r="E24">
-        <v>30.51243965789511</v>
+        <v>61.57789687157096</v>
       </c>
       <c r="F24">
-        <v>49.77160601310047</v>
+        <v>84.60482117760294</v>
       </c>
       <c r="G24">
-        <v>3.619078954890327</v>
+        <v>1.794118800257489</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>25.41135758923395</v>
+        <v>13.52735625017474</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>12.8998438460058</v>
+        <v>18.33790256396441</v>
       </c>
       <c r="M24">
-        <v>17.68719909718071</v>
+        <v>21.39880775546538</v>
       </c>
       <c r="N24">
-        <v>18.79306290049027</v>
+        <v>10.76915377598531</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.93202066270345</v>
+        <v>20.37366817322037</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.019867788802156</v>
+        <v>10.17112877635862</v>
       </c>
       <c r="E25">
-        <v>27.78652283400253</v>
+        <v>53.78122048829722</v>
       </c>
       <c r="F25">
-        <v>47.30431883265932</v>
+        <v>73.45548305624028</v>
       </c>
       <c r="G25">
-        <v>3.633797419199541</v>
+        <v>1.863967987032444</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>25.70218035090023</v>
+        <v>14.17024045245767</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>12.54372259737793</v>
+        <v>16.10903760471903</v>
       </c>
       <c r="M25">
-        <v>17.36553778724245</v>
+        <v>18.94167585026027</v>
       </c>
       <c r="N25">
-        <v>18.93636545723941</v>
+        <v>11.55134687950333</v>
       </c>
       <c r="O25">
         <v>0</v>
